--- a/Code/Results/Cases/Case_1_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6757099645269591</v>
+        <v>0.6003593248816514</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07004708795967929</v>
+        <v>0.1683500098719719</v>
       </c>
       <c r="E2">
-        <v>0.07630773656671153</v>
+        <v>0.192509915913019</v>
       </c>
       <c r="F2">
-        <v>0.8213464042119085</v>
+        <v>1.789372825043991</v>
       </c>
       <c r="G2">
-        <v>0.0008240911126195162</v>
+        <v>0.00249572892764612</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5749814349704963</v>
+        <v>1.370407801833476</v>
       </c>
       <c r="J2">
-        <v>0.1276741237232759</v>
+        <v>0.2643003197562184</v>
       </c>
       <c r="K2">
-        <v>1.223475423722334</v>
+        <v>0.3851245660795257</v>
       </c>
       <c r="L2">
-        <v>0.2315832882114393</v>
+        <v>0.2119011792620995</v>
       </c>
       <c r="M2">
-        <v>0.2011454430445845</v>
+        <v>0.1808908174144683</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.087946030834729</v>
+        <v>4.491384077637321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.593070231516549</v>
+        <v>0.5782418457902452</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06733619324426598</v>
+        <v>0.1682809498339921</v>
       </c>
       <c r="E3">
-        <v>0.07772413175985671</v>
+        <v>0.1935080471101793</v>
       </c>
       <c r="F3">
-        <v>0.8138002166754958</v>
+        <v>1.798807257976435</v>
       </c>
       <c r="G3">
-        <v>0.0008278158565803525</v>
+        <v>0.002498214679505963</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5951746210098925</v>
+        <v>1.383344258567494</v>
       </c>
       <c r="J3">
-        <v>0.1296030402357324</v>
+        <v>0.2653397449350141</v>
       </c>
       <c r="K3">
-        <v>1.070903457637144</v>
+        <v>0.3375936572245735</v>
       </c>
       <c r="L3">
-        <v>0.203581144538191</v>
+        <v>0.2047353137760552</v>
       </c>
       <c r="M3">
-        <v>0.1766605553469667</v>
+        <v>0.1744529858768153</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.076664587984396</v>
+        <v>4.518448774803474</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5425286380237253</v>
+        <v>0.5648414816183447</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06572211416365548</v>
+        <v>0.1682823996884864</v>
       </c>
       <c r="E4">
-        <v>0.07864468651114187</v>
+        <v>0.1941590239807218</v>
       </c>
       <c r="F4">
-        <v>0.8105056497975909</v>
+        <v>1.805394803104527</v>
       </c>
       <c r="G4">
-        <v>0.0008301820102051635</v>
+        <v>0.002499823765704405</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6084543820667605</v>
+        <v>1.391809298939613</v>
       </c>
       <c r="J4">
-        <v>0.1308471457705433</v>
+        <v>0.2660175805884499</v>
       </c>
       <c r="K4">
-        <v>0.9771922745318875</v>
+        <v>0.3083456780297524</v>
       </c>
       <c r="L4">
-        <v>0.1864845706756455</v>
+        <v>0.2004047247810945</v>
       </c>
       <c r="M4">
-        <v>0.1616953069001674</v>
+        <v>0.17055633264048</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.073475772859297</v>
+        <v>4.537178146587664</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5219764070749306</v>
+        <v>0.5594264888213445</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06507671929972503</v>
+        <v>0.1682940619846285</v>
       </c>
       <c r="E5">
-        <v>0.07903254759467204</v>
+        <v>0.1944339089781262</v>
       </c>
       <c r="F5">
-        <v>0.809488263353785</v>
+        <v>1.808279331709549</v>
       </c>
       <c r="G5">
-        <v>0.0008311664440700231</v>
+        <v>0.002500500368986497</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6140826850930381</v>
+        <v>1.395390227981476</v>
       </c>
       <c r="J5">
-        <v>0.1313691126015541</v>
+        <v>0.2663037934289321</v>
       </c>
       <c r="K5">
-        <v>0.9389851724718881</v>
+        <v>0.2964115502476261</v>
       </c>
       <c r="L5">
-        <v>0.1795391621312632</v>
+        <v>0.1986575459761468</v>
       </c>
       <c r="M5">
-        <v>0.1556120291715679</v>
+        <v>0.1689826957761049</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.073082142902948</v>
+        <v>4.545341813303935</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5185661975855851</v>
+        <v>0.5585301132973086</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06497028908735203</v>
+        <v>0.1682966684924239</v>
       </c>
       <c r="E6">
-        <v>0.07909771842907976</v>
+        <v>0.1944801342569846</v>
       </c>
       <c r="F6">
-        <v>0.8093386409661605</v>
+        <v>1.808770393932797</v>
       </c>
       <c r="G6">
-        <v>0.0008313311377106958</v>
+        <v>0.002500613981741284</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6150302099643241</v>
+        <v>1.395992774895724</v>
       </c>
       <c r="J6">
-        <v>0.1314566886871926</v>
+        <v>0.2663519229322429</v>
       </c>
       <c r="K6">
-        <v>0.9326394495045918</v>
+        <v>0.2944289918381173</v>
       </c>
       <c r="L6">
-        <v>0.1783871078155386</v>
+        <v>0.1983684939541348</v>
       </c>
       <c r="M6">
-        <v>0.1546027644429735</v>
+        <v>0.1687222614895703</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.073070523251957</v>
+        <v>4.546729482671026</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5422512938561397</v>
+        <v>0.5647682671194332</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06571336053044519</v>
+        <v>0.1682825120841116</v>
       </c>
       <c r="E7">
-        <v>0.07864986589449874</v>
+        <v>0.1941626922510062</v>
       </c>
       <c r="F7">
-        <v>0.8104906271370638</v>
+        <v>1.805432894604053</v>
       </c>
       <c r="G7">
-        <v>0.0008301952043685786</v>
+        <v>0.002499832805784134</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6085294162182358</v>
+        <v>1.391857060618907</v>
       </c>
       <c r="J7">
-        <v>0.1308541245782955</v>
+        <v>0.26602140007423</v>
       </c>
       <c r="K7">
-        <v>0.9766770915171037</v>
+        <v>0.3081847913767035</v>
       </c>
       <c r="L7">
-        <v>0.1863908186278422</v>
+        <v>0.2003810903713799</v>
       </c>
       <c r="M7">
-        <v>0.1616132068579894</v>
+        <v>0.1705350520027871</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.073466840467333</v>
+        <v>4.537286093018267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6471704488444914</v>
+        <v>0.5926962030878826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06910170564573548</v>
+        <v>0.1683171225432432</v>
       </c>
       <c r="E8">
-        <v>0.07678550787194416</v>
+        <v>0.1928461723427057</v>
       </c>
       <c r="F8">
-        <v>0.8184595306625297</v>
+        <v>1.792460982863787</v>
       </c>
       <c r="G8">
-        <v>0.0008253591654680125</v>
+        <v>0.002496568861265465</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5817581977413901</v>
+        <v>1.374760007844301</v>
       </c>
       <c r="J8">
-        <v>0.1283267902799725</v>
+        <v>0.2646505048201728</v>
       </c>
       <c r="K8">
-        <v>1.170868168374255</v>
+        <v>0.3687495612050213</v>
       </c>
       <c r="L8">
-        <v>0.2219063241704049</v>
+        <v>0.2094160968279368</v>
       </c>
       <c r="M8">
-        <v>0.1926875397025505</v>
+        <v>0.1786594753206678</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.08325932443114</v>
+        <v>4.500277931813258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8548111623956629</v>
+        <v>0.6488693845241755</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07616216031208012</v>
+        <v>0.1687311121182304</v>
       </c>
       <c r="E9">
-        <v>0.07353633860288156</v>
+        <v>0.1905659939757181</v>
       </c>
       <c r="F9">
-        <v>0.8452551953252367</v>
+        <v>1.773321125483982</v>
       </c>
       <c r="G9">
-        <v>0.0008164891697053098</v>
+        <v>0.002490822671185614</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5364785622488313</v>
+        <v>1.345370130351959</v>
       </c>
       <c r="J9">
-        <v>0.1238465503625239</v>
+        <v>0.2622754371421046</v>
       </c>
       <c r="K9">
-        <v>1.551980674060076</v>
+        <v>0.4869852402361516</v>
       </c>
       <c r="L9">
-        <v>0.2924564988499299</v>
+        <v>0.2276778792362535</v>
       </c>
       <c r="M9">
-        <v>0.2542697764674848</v>
+        <v>0.1950317611949508</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.133744262572833</v>
+        <v>4.444446286284887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.008993391141615</v>
+        <v>0.6909743508040833</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08162696960247473</v>
+        <v>0.1692439677140101</v>
       </c>
       <c r="E10">
-        <v>0.07140162166644393</v>
+        <v>0.1890732266980053</v>
       </c>
       <c r="F10">
-        <v>0.872552662155897</v>
+        <v>1.763088712950967</v>
       </c>
       <c r="G10">
-        <v>0.0008103250351717685</v>
+        <v>0.00248699598957092</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5079426779045235</v>
+        <v>1.326293150679504</v>
       </c>
       <c r="J10">
-        <v>0.1208476447553757</v>
+        <v>0.2607198537269646</v>
       </c>
       <c r="K10">
-        <v>1.833015395426315</v>
+        <v>0.5735031825059025</v>
       </c>
       <c r="L10">
-        <v>0.3450464486414546</v>
+        <v>0.2414206074014373</v>
       </c>
       <c r="M10">
-        <v>0.3000617110054193</v>
+        <v>0.2073227087018026</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.192291441255321</v>
+        <v>4.413617968254869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.079601607581367</v>
+        <v>0.7103056283417004</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08417901112505888</v>
+        <v>0.1695221189650269</v>
       </c>
       <c r="E11">
-        <v>0.07048634019120881</v>
+        <v>0.1884334691165983</v>
       </c>
       <c r="F11">
-        <v>0.886812906526572</v>
+        <v>1.759263300650282</v>
       </c>
       <c r="G11">
-        <v>0.0008075924176647805</v>
+        <v>0.002485340085882635</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4960657786689069</v>
+        <v>1.318159428321071</v>
       </c>
       <c r="J11">
-        <v>0.1195475781549789</v>
+        <v>0.2600529642494465</v>
       </c>
       <c r="K11">
-        <v>1.961292667571229</v>
+        <v>0.6127815528243445</v>
       </c>
       <c r="L11">
-        <v>0.3691844061763589</v>
+        <v>0.2477421107184341</v>
       </c>
       <c r="M11">
-        <v>0.3210492747414477</v>
+        <v>0.2129698907181208</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.22414954028693</v>
+        <v>4.401803389226416</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.106416449679131</v>
+        <v>0.7176509253268648</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08515540012149359</v>
+        <v>0.1696338547566825</v>
       </c>
       <c r="E12">
-        <v>0.0701478683727168</v>
+        <v>0.1881968408286321</v>
       </c>
       <c r="F12">
-        <v>0.8924946684555266</v>
+        <v>1.757933800694246</v>
       </c>
       <c r="G12">
-        <v>0.0008065674962573441</v>
+        <v>0.002484725180242314</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4917340375601889</v>
+        <v>1.315157603596383</v>
       </c>
       <c r="J12">
-        <v>0.1190645664801391</v>
+        <v>0.2598062652004387</v>
       </c>
       <c r="K12">
-        <v>2.009947907688229</v>
+        <v>0.6276432762766433</v>
       </c>
       <c r="L12">
-        <v>0.3783599627213476</v>
+        <v>0.250145815518465</v>
       </c>
       <c r="M12">
-        <v>0.3290224236206001</v>
+        <v>0.2151162476190436</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.237015043543153</v>
+        <v>4.397646956355061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.10063780941897</v>
+        <v>0.7160678829985727</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08494466505967324</v>
+        <v>0.1696095062401355</v>
       </c>
       <c r="E13">
-        <v>0.07022040130208795</v>
+        <v>0.1882475526856844</v>
       </c>
       <c r="F13">
-        <v>0.8912581911033897</v>
+        <v>1.75821483782687</v>
       </c>
       <c r="G13">
-        <v>0.0008067877997160553</v>
+        <v>0.002484857071582502</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4926594662078401</v>
+        <v>1.315800621456759</v>
       </c>
       <c r="J13">
-        <v>0.1191681770895556</v>
+        <v>0.2598591369891796</v>
       </c>
       <c r="K13">
-        <v>1.99946531243873</v>
+        <v>0.6244430905510114</v>
       </c>
       <c r="L13">
-        <v>0.376382214319591</v>
+        <v>0.2496276973954679</v>
       </c>
       <c r="M13">
-        <v>0.3273040725192047</v>
+        <v>0.2146536427639276</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.234207742751266</v>
+        <v>4.398528001422932</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.081806080175937</v>
+        <v>0.710909433305801</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08425913619899461</v>
+        <v>0.1695311834006574</v>
       </c>
       <c r="E14">
-        <v>0.07045833047277128</v>
+        <v>0.1884138887572426</v>
       </c>
       <c r="F14">
-        <v>0.8872746024949905</v>
+        <v>1.759151535855985</v>
       </c>
       <c r="G14">
-        <v>0.0008075079016516024</v>
+        <v>0.002485289254066026</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4957060395586161</v>
+        <v>1.317910898689256</v>
       </c>
       <c r="J14">
-        <v>0.1195076537770596</v>
+        <v>0.2600325513068942</v>
       </c>
       <c r="K14">
-        <v>1.965293869068034</v>
+        <v>0.6140044835344156</v>
       </c>
       <c r="L14">
-        <v>0.369938557508533</v>
+        <v>0.2479396676796171</v>
       </c>
       <c r="M14">
-        <v>0.3217046986418879</v>
+        <v>0.2131463155275952</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.225191629302287</v>
+        <v>4.401455075212084</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.070281427582614</v>
+        <v>0.7077529679331747</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08384054544514186</v>
+        <v>0.1694840413538827</v>
       </c>
       <c r="E15">
-        <v>0.07060513019127468</v>
+        <v>0.1885165075679938</v>
       </c>
       <c r="F15">
-        <v>0.8848717437532301</v>
+        <v>1.759740796090931</v>
       </c>
       <c r="G15">
-        <v>0.0008079502563051149</v>
+        <v>0.002485555558672232</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4975939585938889</v>
+        <v>1.319213691801224</v>
       </c>
       <c r="J15">
-        <v>0.1197168057682916</v>
+        <v>0.2601395321301574</v>
       </c>
       <c r="K15">
-        <v>1.944373746450054</v>
+        <v>0.6076089310833481</v>
       </c>
       <c r="L15">
-        <v>0.3659963237520856</v>
+        <v>0.2469069838482625</v>
       </c>
       <c r="M15">
-        <v>0.3182783517775079</v>
+        <v>0.2122240571550691</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.219774931066837</v>
+        <v>4.403289332868212</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.004389229058319</v>
+        <v>0.6897145301179251</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08146155795782306</v>
+        <v>0.1692266886618015</v>
       </c>
       <c r="E16">
-        <v>0.07146256893095604</v>
+        <v>0.1891158257744756</v>
       </c>
       <c r="F16">
-        <v>0.8716592060142574</v>
+        <v>1.763355387814393</v>
       </c>
       <c r="G16">
-        <v>0.0008105050214031556</v>
+        <v>0.002487105909954301</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5087416693520161</v>
+        <v>1.32683566017116</v>
       </c>
       <c r="J16">
-        <v>0.1209339039419621</v>
+        <v>0.2607642546325817</v>
       </c>
       <c r="K16">
-        <v>1.824642326324266</v>
+        <v>0.5709345913914206</v>
       </c>
       <c r="L16">
-        <v>0.3434736443539634</v>
+        <v>0.2410088746772061</v>
       </c>
       <c r="M16">
-        <v>0.2986935351265174</v>
+        <v>0.2069547649123251</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.190318791452398</v>
+        <v>4.41443451882256</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.964093396365115</v>
+        <v>0.6786935966760552</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08001938385086049</v>
+        <v>0.1690802674366765</v>
       </c>
       <c r="E17">
-        <v>0.07200294369162208</v>
+        <v>0.1894935429282265</v>
       </c>
       <c r="F17">
-        <v>0.8640372402913172</v>
+        <v>1.765785128301282</v>
       </c>
       <c r="G17">
-        <v>0.000812090305220657</v>
+        <v>0.002488078698832114</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5158680910854372</v>
+        <v>1.331650906912458</v>
       </c>
       <c r="J17">
-        <v>0.1216970331904417</v>
+        <v>0.2611579232827275</v>
       </c>
       <c r="K17">
-        <v>1.751313719232513</v>
+        <v>0.5484152687991468</v>
       </c>
       <c r="L17">
-        <v>0.3297145419269754</v>
+        <v>0.2374083578320665</v>
       </c>
       <c r="M17">
-        <v>0.2867211261889366</v>
+        <v>0.2037364481340447</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.173621269484187</v>
+        <v>4.421837451905645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9409599283891623</v>
+        <v>0.6723713896896868</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0791960715457023</v>
+        <v>0.1690002739717826</v>
       </c>
       <c r="E18">
-        <v>0.07231899993605184</v>
+        <v>0.1897144969732532</v>
       </c>
       <c r="F18">
-        <v>0.8598256445361301</v>
+        <v>1.767260724005013</v>
       </c>
       <c r="G18">
-        <v>0.0008130088727140716</v>
+        <v>0.00248864621301271</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5200705110473152</v>
+        <v>1.334471763005446</v>
       </c>
       <c r="J18">
-        <v>0.1221419985571863</v>
+        <v>0.2613881883110487</v>
       </c>
       <c r="K18">
-        <v>1.709176716735328</v>
+        <v>0.5354553531038277</v>
       </c>
       <c r="L18">
-        <v>0.3218205943867787</v>
+        <v>0.2353440214550346</v>
       </c>
       <c r="M18">
-        <v>0.2798494536592031</v>
+        <v>0.2018906347869702</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.164505870090011</v>
+        <v>4.426303393092979</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9331345490670628</v>
+        <v>0.6702336918060894</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07891836070503189</v>
+        <v>0.168973916389163</v>
       </c>
       <c r="E19">
-        <v>0.0724269093808072</v>
+        <v>0.1897899444593083</v>
       </c>
       <c r="F19">
-        <v>0.8584287797372809</v>
+        <v>1.76777374940837</v>
       </c>
       <c r="G19">
-        <v>0.0008133210562935813</v>
+        <v>0.002488839737994657</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5215109465504</v>
+        <v>1.33543566102275</v>
       </c>
       <c r="J19">
-        <v>0.1222936904038896</v>
+        <v>0.2614668118380177</v>
       </c>
       <c r="K19">
-        <v>1.69491616392304</v>
+        <v>0.5310661014535469</v>
       </c>
       <c r="L19">
-        <v>0.319151138610593</v>
+        <v>0.2346462085486962</v>
       </c>
       <c r="M19">
-        <v>0.2775252298298767</v>
+        <v>0.2012665852674758</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.161501989023179</v>
+        <v>4.427851209589448</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9683783745827839</v>
+        <v>0.6798650651732316</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08017226189227245</v>
+        <v>0.1690954173581005</v>
       </c>
       <c r="E20">
-        <v>0.07194487613076106</v>
+        <v>0.189452951375396</v>
       </c>
       <c r="F20">
-        <v>0.8648306552110725</v>
+        <v>1.765518399154509</v>
       </c>
       <c r="G20">
-        <v>0.0008119208529077618</v>
+        <v>0.002487974317148483</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5150987111062335</v>
+        <v>1.331133011548573</v>
       </c>
       <c r="J20">
-        <v>0.1216151718309302</v>
+        <v>0.261115619609301</v>
       </c>
       <c r="K20">
-        <v>1.759115448549778</v>
+        <v>0.5508132602883506</v>
       </c>
       <c r="L20">
-        <v>0.3311771303941811</v>
+        <v>0.2377909585496809</v>
       </c>
       <c r="M20">
-        <v>0.2879940829214647</v>
+        <v>0.2040784983992765</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.175347830475516</v>
+        <v>4.42102787448357</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.087335245933275</v>
+        <v>0.7124239220647155</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0844602175876048</v>
+        <v>0.1695540152075452</v>
       </c>
       <c r="E21">
-        <v>0.07038822356157981</v>
+        <v>0.1883648790632919</v>
       </c>
       <c r="F21">
-        <v>0.8884368942000975</v>
+        <v>1.758873173863883</v>
       </c>
       <c r="G21">
-        <v>0.0008072961260647813</v>
+        <v>0.002485161982256073</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4948066298947396</v>
+        <v>1.317288936175185</v>
       </c>
       <c r="J21">
-        <v>0.1194076883815818</v>
+        <v>0.2599814570700065</v>
       </c>
       <c r="K21">
-        <v>1.975328551977896</v>
+        <v>0.6170708911485576</v>
       </c>
       <c r="L21">
-        <v>0.3718302299816401</v>
+        <v>0.2484352158085414</v>
       </c>
       <c r="M21">
-        <v>0.3233486495621918</v>
+        <v>0.2135888411444071</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.227817709885841</v>
+        <v>4.400586707759089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.165534372873168</v>
+        <v>0.7338482521052754</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08732110141399119</v>
+        <v>0.1698910540955154</v>
       </c>
       <c r="E22">
-        <v>0.06941827298022973</v>
+        <v>0.1876865917287485</v>
       </c>
       <c r="F22">
-        <v>0.9055155870045866</v>
+        <v>1.755224270006707</v>
       </c>
       <c r="G22">
-        <v>0.0008043308686775026</v>
+        <v>0.002483394749091299</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4825144559502199</v>
+        <v>1.308697045310577</v>
       </c>
       <c r="J22">
-        <v>0.1180191875678354</v>
+        <v>0.2592742314316521</v>
       </c>
       <c r="K22">
-        <v>2.117108122533551</v>
+        <v>0.6603029480127418</v>
       </c>
       <c r="L22">
-        <v>0.3986057595789987</v>
+        <v>0.2554494188872809</v>
       </c>
       <c r="M22">
-        <v>0.3466057960687294</v>
+        <v>0.2198503259565427</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.266807547196379</v>
+        <v>4.389077709101656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.123753191985145</v>
+        <v>0.7224005812519749</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08578867601542584</v>
+        <v>0.169707769775691</v>
       </c>
       <c r="E23">
-        <v>0.06993158111163211</v>
+        <v>0.1880456085597806</v>
       </c>
       <c r="F23">
-        <v>0.8962435002408853</v>
+        <v>1.757108298453872</v>
       </c>
       <c r="G23">
-        <v>0.0008059083864706626</v>
+        <v>0.002484331495667453</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4889838502224038</v>
+        <v>1.313240992933952</v>
       </c>
       <c r="J23">
-        <v>0.1187552708789195</v>
+        <v>0.2596485861359863</v>
       </c>
       <c r="K23">
-        <v>2.041388529656444</v>
+        <v>0.6372359490439123</v>
       </c>
       <c r="L23">
-        <v>0.3842948088553868</v>
+        <v>0.251700591624072</v>
       </c>
       <c r="M23">
-        <v>0.3341781318896295</v>
+        <v>0.2165043030722984</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.245550601248397</v>
+        <v>4.39505102959734</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9664410334051183</v>
+        <v>0.6793354010064263</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08010312766042915</v>
+        <v>0.1690885550369927</v>
       </c>
       <c r="E24">
-        <v>0.07197111170135706</v>
+        <v>0.1894712909806291</v>
       </c>
       <c r="F24">
-        <v>0.8644714229044794</v>
+        <v>1.76563874222709</v>
       </c>
       <c r="G24">
-        <v>0.0008119974399695641</v>
+        <v>0.002488021482285881</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5154462201923486</v>
+        <v>1.331366988483506</v>
       </c>
       <c r="J24">
-        <v>0.1216521619450255</v>
+        <v>0.261134732827049</v>
       </c>
       <c r="K24">
-        <v>1.755588223870404</v>
+        <v>0.549729169573169</v>
       </c>
       <c r="L24">
-        <v>0.3305158435541529</v>
+        <v>0.2376179671581156</v>
       </c>
       <c r="M24">
-        <v>0.2874185438284442</v>
+        <v>0.2039238436331487</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.174565747746442</v>
+        <v>4.421393230603087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7983889342185364</v>
+        <v>0.6335248461005847</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07420521180273454</v>
+        <v>0.1685823015339167</v>
       </c>
       <c r="E25">
-        <v>0.07437132878293351</v>
+        <v>0.1911507015826102</v>
       </c>
       <c r="F25">
-        <v>0.8367306407131494</v>
+        <v>1.777825730686715</v>
       </c>
       <c r="G25">
-        <v>0.0008188252024426343</v>
+        <v>0.002492307514715257</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5479221156325202</v>
+        <v>1.352878609103946</v>
       </c>
       <c r="J25">
-        <v>0.1250073742263051</v>
+        <v>0.2628845849647838</v>
       </c>
       <c r="K25">
-        <v>1.448763193334003</v>
+        <v>0.455058938897082</v>
       </c>
       <c r="L25">
-        <v>0.2732535847827222</v>
+        <v>0.2226799420802905</v>
       </c>
       <c r="M25">
-        <v>0.2375257377421107</v>
+        <v>0.1905561274995051</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.116500269629285</v>
+        <v>4.457759481968651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6003593248816514</v>
+        <v>0.675709964526817</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1683500098719719</v>
+        <v>0.07004708795958692</v>
       </c>
       <c r="E2">
-        <v>0.192509915913019</v>
+        <v>0.07630773656671241</v>
       </c>
       <c r="F2">
-        <v>1.789372825043991</v>
+        <v>0.8213464042119085</v>
       </c>
       <c r="G2">
-        <v>0.00249572892764612</v>
+        <v>0.000824091112560181</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.370407801833476</v>
+        <v>0.5749814349704998</v>
       </c>
       <c r="J2">
-        <v>0.2643003197562184</v>
+        <v>0.1276741237234216</v>
       </c>
       <c r="K2">
-        <v>0.3851245660795257</v>
+        <v>1.223475423722306</v>
       </c>
       <c r="L2">
-        <v>0.2119011792620995</v>
+        <v>0.2315832882114108</v>
       </c>
       <c r="M2">
-        <v>0.1808908174144683</v>
+        <v>0.2011454430445525</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.491384077637321</v>
+        <v>2.087946030834729</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5782418457902452</v>
+        <v>0.593070231516549</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1682809498339921</v>
+        <v>0.06733619324451467</v>
       </c>
       <c r="E3">
-        <v>0.1935080471101793</v>
+        <v>0.07772413175986603</v>
       </c>
       <c r="F3">
-        <v>1.798807257976435</v>
+        <v>0.8138002166754887</v>
       </c>
       <c r="G3">
-        <v>0.002498214679505963</v>
+        <v>0.000827815856603353</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.383344258567494</v>
+        <v>0.5951746210098818</v>
       </c>
       <c r="J3">
-        <v>0.2653397449350141</v>
+        <v>0.1296030402357609</v>
       </c>
       <c r="K3">
-        <v>0.3375936572245735</v>
+        <v>1.070903457637115</v>
       </c>
       <c r="L3">
-        <v>0.2047353137760552</v>
+        <v>0.2035811445382905</v>
       </c>
       <c r="M3">
-        <v>0.1744529858768153</v>
+        <v>0.176660555346988</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.518448774803474</v>
+        <v>2.076664587984382</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5648414816183447</v>
+        <v>0.5425286380234411</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1682823996884864</v>
+        <v>0.06572211416354179</v>
       </c>
       <c r="E4">
-        <v>0.1941590239807218</v>
+        <v>0.07864468651114542</v>
       </c>
       <c r="F4">
-        <v>1.805394803104527</v>
+        <v>0.8105056497975909</v>
       </c>
       <c r="G4">
-        <v>0.002499823765704405</v>
+        <v>0.0008301820101854906</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.391809298939613</v>
+        <v>0.6084543820667534</v>
       </c>
       <c r="J4">
-        <v>0.2660175805884499</v>
+        <v>0.130847145770554</v>
       </c>
       <c r="K4">
-        <v>0.3083456780297524</v>
+        <v>0.9771922745316886</v>
       </c>
       <c r="L4">
-        <v>0.2004047247810945</v>
+        <v>0.186484570675546</v>
       </c>
       <c r="M4">
-        <v>0.17055633264048</v>
+        <v>0.1616953069001497</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.537178146587664</v>
+        <v>2.073475772859183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5594264888213445</v>
+        <v>0.521976407074817</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1682940619846285</v>
+        <v>0.06507671929985293</v>
       </c>
       <c r="E5">
-        <v>0.1944339089781262</v>
+        <v>0.07903254759468759</v>
       </c>
       <c r="F5">
-        <v>1.808279331709549</v>
+        <v>0.8094882633537708</v>
       </c>
       <c r="G5">
-        <v>0.002500500368986497</v>
+        <v>0.0008311664440108331</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.395390227981476</v>
+        <v>0.614082685093031</v>
       </c>
       <c r="J5">
-        <v>0.2663037934289321</v>
+        <v>0.1313691126016376</v>
       </c>
       <c r="K5">
-        <v>0.2964115502476261</v>
+        <v>0.9389851724717175</v>
       </c>
       <c r="L5">
-        <v>0.1986575459761468</v>
+        <v>0.1795391621312632</v>
       </c>
       <c r="M5">
-        <v>0.1689826957761049</v>
+        <v>0.1556120291715537</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.545341813303935</v>
+        <v>2.073082142902905</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5585301132973086</v>
+        <v>0.5185661975854146</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1682966684924239</v>
+        <v>0.06497028908734848</v>
       </c>
       <c r="E6">
-        <v>0.1944801342569846</v>
+        <v>0.07909771842909974</v>
       </c>
       <c r="F6">
-        <v>1.808770393932797</v>
+        <v>0.8093386409661392</v>
       </c>
       <c r="G6">
-        <v>0.002500613981741284</v>
+        <v>0.0008313311376517716</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.395992774895724</v>
+        <v>0.6150302099643028</v>
       </c>
       <c r="J6">
-        <v>0.2663519229322429</v>
+        <v>0.1314566886872033</v>
       </c>
       <c r="K6">
-        <v>0.2944289918381173</v>
+        <v>0.9326394495047623</v>
       </c>
       <c r="L6">
-        <v>0.1983684939541348</v>
+        <v>0.1783871078156096</v>
       </c>
       <c r="M6">
-        <v>0.1687222614895703</v>
+        <v>0.1546027644429842</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.546729482671026</v>
+        <v>2.073070523251914</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5647682671194332</v>
+        <v>0.5422512938560544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1682825120841116</v>
+        <v>0.06571336053056598</v>
       </c>
       <c r="E7">
-        <v>0.1941626922510062</v>
+        <v>0.07864986589452272</v>
       </c>
       <c r="F7">
-        <v>1.805432894604053</v>
+        <v>0.8104906271370425</v>
       </c>
       <c r="G7">
-        <v>0.002499832805784134</v>
+        <v>0.0008301952043099707</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.391857060618907</v>
+        <v>0.6085294162182358</v>
       </c>
       <c r="J7">
-        <v>0.26602140007423</v>
+        <v>0.1308541245783417</v>
       </c>
       <c r="K7">
-        <v>0.3081847913767035</v>
+        <v>0.9766770915170468</v>
       </c>
       <c r="L7">
-        <v>0.2003810903713799</v>
+        <v>0.1863908186278422</v>
       </c>
       <c r="M7">
-        <v>0.1705350520027871</v>
+        <v>0.1616132068579681</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.537286093018267</v>
+        <v>2.073466840467233</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5926962030878826</v>
+        <v>0.647170448844463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1683171225432432</v>
+        <v>0.06910170564572127</v>
       </c>
       <c r="E8">
-        <v>0.1928461723427057</v>
+        <v>0.07678550787192906</v>
       </c>
       <c r="F8">
-        <v>1.792460982863787</v>
+        <v>0.8184595306625084</v>
       </c>
       <c r="G8">
-        <v>0.002496568861265465</v>
+        <v>0.0008253591654670886</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.374760007844301</v>
+        <v>0.5817581977413653</v>
       </c>
       <c r="J8">
-        <v>0.2646505048201728</v>
+        <v>0.1283267902799743</v>
       </c>
       <c r="K8">
-        <v>0.3687495612050213</v>
+        <v>1.170868168374255</v>
       </c>
       <c r="L8">
-        <v>0.2094160968279368</v>
+        <v>0.2219063241704902</v>
       </c>
       <c r="M8">
-        <v>0.1786594753206678</v>
+        <v>0.1926875397025505</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.500277931813258</v>
+        <v>2.083259324431083</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6488693845241755</v>
+        <v>0.8548111623956629</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1687311121182304</v>
+        <v>0.07616216031196643</v>
       </c>
       <c r="E9">
-        <v>0.1905659939757181</v>
+        <v>0.0735363386028931</v>
       </c>
       <c r="F9">
-        <v>1.773321125483982</v>
+        <v>0.8452551953252438</v>
       </c>
       <c r="G9">
-        <v>0.002490822671185614</v>
+        <v>0.0008164891697596568</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.345370130351959</v>
+        <v>0.53647856224881</v>
       </c>
       <c r="J9">
-        <v>0.2622754371421046</v>
+        <v>0.123846550362499</v>
       </c>
       <c r="K9">
-        <v>0.4869852402361516</v>
+        <v>1.55198067405999</v>
       </c>
       <c r="L9">
-        <v>0.2276778792362535</v>
+        <v>0.2924564988499441</v>
       </c>
       <c r="M9">
-        <v>0.1950317611949508</v>
+        <v>0.2542697764674919</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.444446286284887</v>
+        <v>2.133744262572804</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6909743508040833</v>
+        <v>1.008993391141502</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1692439677140101</v>
+        <v>0.08162696960228999</v>
       </c>
       <c r="E10">
-        <v>0.1890732266980053</v>
+        <v>0.0714016216664759</v>
       </c>
       <c r="F10">
-        <v>1.763088712950967</v>
+        <v>0.8725526621559112</v>
       </c>
       <c r="G10">
-        <v>0.00248699598957092</v>
+        <v>0.0008103250351714971</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.326293150679504</v>
+        <v>0.5079426779045342</v>
       </c>
       <c r="J10">
-        <v>0.2607198537269646</v>
+        <v>0.1208476447554361</v>
       </c>
       <c r="K10">
-        <v>0.5735031825059025</v>
+        <v>1.833015395426287</v>
       </c>
       <c r="L10">
-        <v>0.2414206074014373</v>
+        <v>0.3450464486414262</v>
       </c>
       <c r="M10">
-        <v>0.2073227087018026</v>
+        <v>0.3000617110054051</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.413617968254869</v>
+        <v>2.192291441255378</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7103056283417004</v>
+        <v>1.079601607581225</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1695221189650269</v>
+        <v>0.08417901112487414</v>
       </c>
       <c r="E11">
-        <v>0.1884334691165983</v>
+        <v>0.07048634019121103</v>
       </c>
       <c r="F11">
-        <v>1.759263300650282</v>
+        <v>0.8868129065265791</v>
       </c>
       <c r="G11">
-        <v>0.002485340085882635</v>
+        <v>0.0008075924176388012</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.318159428321071</v>
+        <v>0.496065778668914</v>
       </c>
       <c r="J11">
-        <v>0.2600529642494465</v>
+        <v>0.1195475781550197</v>
       </c>
       <c r="K11">
-        <v>0.6127815528243445</v>
+        <v>1.961292667571229</v>
       </c>
       <c r="L11">
-        <v>0.2477421107184341</v>
+        <v>0.3691844061763447</v>
       </c>
       <c r="M11">
-        <v>0.2129698907181208</v>
+        <v>0.3210492747414406</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.401803389226416</v>
+        <v>2.22414954028693</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7176509253268648</v>
+        <v>1.106416449679244</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1696338547566825</v>
+        <v>0.08515540012178491</v>
       </c>
       <c r="E12">
-        <v>0.1881968408286321</v>
+        <v>0.07014786837273368</v>
       </c>
       <c r="F12">
-        <v>1.757933800694246</v>
+        <v>0.8924946684555053</v>
       </c>
       <c r="G12">
-        <v>0.002484725180242314</v>
+        <v>0.0008065674962313347</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.315157603596383</v>
+        <v>0.4917340375601782</v>
       </c>
       <c r="J12">
-        <v>0.2598062652004387</v>
+        <v>0.1190645664801533</v>
       </c>
       <c r="K12">
-        <v>0.6276432762766433</v>
+        <v>2.009947907688115</v>
       </c>
       <c r="L12">
-        <v>0.250145815518465</v>
+        <v>0.3783599627212197</v>
       </c>
       <c r="M12">
-        <v>0.2151162476190436</v>
+        <v>0.329022423620593</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.397646956355061</v>
+        <v>2.237015043543124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7160678829985727</v>
+        <v>1.100637809419084</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1696095062401355</v>
+        <v>0.08494466505973719</v>
       </c>
       <c r="E13">
-        <v>0.1882475526856844</v>
+        <v>0.07022040130210261</v>
       </c>
       <c r="F13">
-        <v>1.75821483782687</v>
+        <v>0.8912581911033755</v>
       </c>
       <c r="G13">
-        <v>0.002484857071582502</v>
+        <v>0.000806787799745301</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.315800621456759</v>
+        <v>0.4926594662078152</v>
       </c>
       <c r="J13">
-        <v>0.2598591369891796</v>
+        <v>0.1191681770895734</v>
       </c>
       <c r="K13">
-        <v>0.6244430905510114</v>
+        <v>1.999465312438645</v>
       </c>
       <c r="L13">
-        <v>0.2496276973954679</v>
+        <v>0.376382214319591</v>
       </c>
       <c r="M13">
-        <v>0.2146536427639276</v>
+        <v>0.3273040725192118</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.398528001422932</v>
+        <v>2.234207742751181</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.710909433305801</v>
+        <v>1.081806080175937</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1695311834006574</v>
+        <v>0.08425913619875303</v>
       </c>
       <c r="E14">
-        <v>0.1884138887572426</v>
+        <v>0.07045833047274686</v>
       </c>
       <c r="F14">
-        <v>1.759151535855985</v>
+        <v>0.8872746024949834</v>
       </c>
       <c r="G14">
-        <v>0.002485289254066026</v>
+        <v>0.0008075079015964971</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.317910898689256</v>
+        <v>0.495706039558609</v>
       </c>
       <c r="J14">
-        <v>0.2600325513068942</v>
+        <v>0.1195076537770383</v>
       </c>
       <c r="K14">
-        <v>0.6140044835344156</v>
+        <v>1.965293869067978</v>
       </c>
       <c r="L14">
-        <v>0.2479396676796171</v>
+        <v>0.3699385575084762</v>
       </c>
       <c r="M14">
-        <v>0.2131463155275952</v>
+        <v>0.3217046986418808</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.401455075212084</v>
+        <v>2.22519162930223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7077529679331747</v>
+        <v>1.070281427582643</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1694840413538827</v>
+        <v>0.08384054544509922</v>
       </c>
       <c r="E15">
-        <v>0.1885165075679938</v>
+        <v>0.07060513019127512</v>
       </c>
       <c r="F15">
-        <v>1.759740796090931</v>
+        <v>0.8848717437532301</v>
       </c>
       <c r="G15">
-        <v>0.002485555558672232</v>
+        <v>0.0008079502563019259</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.319213691801224</v>
+        <v>0.4975939585938889</v>
       </c>
       <c r="J15">
-        <v>0.2601395321301574</v>
+        <v>0.1197168057682862</v>
       </c>
       <c r="K15">
-        <v>0.6076089310833481</v>
+        <v>1.944373746449941</v>
       </c>
       <c r="L15">
-        <v>0.2469069838482625</v>
+        <v>0.3659963237520714</v>
       </c>
       <c r="M15">
-        <v>0.2122240571550691</v>
+        <v>0.3182783517775007</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.403289332868212</v>
+        <v>2.219774931066752</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6897145301179251</v>
+        <v>1.004389229058347</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1692266886618015</v>
+        <v>0.08146155795753174</v>
       </c>
       <c r="E16">
-        <v>0.1891158257744756</v>
+        <v>0.07146256893094094</v>
       </c>
       <c r="F16">
-        <v>1.763355387814393</v>
+        <v>0.8716592060142574</v>
       </c>
       <c r="G16">
-        <v>0.002487105909954301</v>
+        <v>0.0008105050214038711</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.32683566017116</v>
+        <v>0.5087416693520161</v>
       </c>
       <c r="J16">
-        <v>0.2607642546325817</v>
+        <v>0.12093390394182</v>
       </c>
       <c r="K16">
-        <v>0.5709345913914206</v>
+        <v>1.824642326324238</v>
       </c>
       <c r="L16">
-        <v>0.2410088746772061</v>
+        <v>0.3434736443539919</v>
       </c>
       <c r="M16">
-        <v>0.2069547649123251</v>
+        <v>0.2986935351265245</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.41443451882256</v>
+        <v>2.19031879145237</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6786935966760552</v>
+        <v>0.9640933963652003</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1690802674366765</v>
+        <v>0.08001938385110208</v>
       </c>
       <c r="E17">
-        <v>0.1894935429282265</v>
+        <v>0.0720029436916243</v>
       </c>
       <c r="F17">
-        <v>1.765785128301282</v>
+        <v>0.8640372402913101</v>
       </c>
       <c r="G17">
-        <v>0.002488078698832114</v>
+        <v>0.0008120903051912838</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.331650906912458</v>
+        <v>0.5158680910854443</v>
       </c>
       <c r="J17">
-        <v>0.2611579232827275</v>
+        <v>0.1216970331905376</v>
       </c>
       <c r="K17">
-        <v>0.5484152687991468</v>
+        <v>1.751313719232598</v>
       </c>
       <c r="L17">
-        <v>0.2374083578320665</v>
+        <v>0.3297145419270322</v>
       </c>
       <c r="M17">
-        <v>0.2037364481340447</v>
+        <v>0.2867211261889153</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.421837451905645</v>
+        <v>2.173621269484215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6723713896896868</v>
+        <v>0.9409599283892192</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1690002739717826</v>
+        <v>0.07919607154552466</v>
       </c>
       <c r="E18">
-        <v>0.1897144969732532</v>
+        <v>0.07231899993605939</v>
       </c>
       <c r="F18">
-        <v>1.767260724005013</v>
+        <v>0.859825644536123</v>
       </c>
       <c r="G18">
-        <v>0.00248864621301271</v>
+        <v>0.0008130088727149983</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.334471763005446</v>
+        <v>0.5200705110473187</v>
       </c>
       <c r="J18">
-        <v>0.2613881883110487</v>
+        <v>0.1221419985572041</v>
       </c>
       <c r="K18">
-        <v>0.5354553531038277</v>
+        <v>1.709176716735328</v>
       </c>
       <c r="L18">
-        <v>0.2353440214550346</v>
+        <v>0.3218205943868071</v>
       </c>
       <c r="M18">
-        <v>0.2018906347869702</v>
+        <v>0.2798494536592102</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.426303393092979</v>
+        <v>2.164505870089982</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6702336918060894</v>
+        <v>0.9331345490671481</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.168973916389163</v>
+        <v>0.07891836070491109</v>
       </c>
       <c r="E19">
-        <v>0.1897899444593083</v>
+        <v>0.07242690938077967</v>
       </c>
       <c r="F19">
-        <v>1.76777374940837</v>
+        <v>0.8584287797372738</v>
       </c>
       <c r="G19">
-        <v>0.002488839737994657</v>
+        <v>0.0008133210562137339</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.33543566102275</v>
+        <v>0.5215109465504106</v>
       </c>
       <c r="J19">
-        <v>0.2614668118380177</v>
+        <v>0.1222936904040015</v>
       </c>
       <c r="K19">
-        <v>0.5310661014535469</v>
+        <v>1.694916163922841</v>
       </c>
       <c r="L19">
-        <v>0.2346462085486962</v>
+        <v>0.3191511386105645</v>
       </c>
       <c r="M19">
-        <v>0.2012665852674758</v>
+        <v>0.2775252298298554</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.427851209589448</v>
+        <v>2.161501989023094</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6798650651732316</v>
+        <v>0.968378374582926</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1690954173581005</v>
+        <v>0.08017226189215876</v>
       </c>
       <c r="E20">
-        <v>0.189452951375396</v>
+        <v>0.07194487613077083</v>
       </c>
       <c r="F20">
-        <v>1.765518399154509</v>
+        <v>0.8648306552110583</v>
       </c>
       <c r="G20">
-        <v>0.002487974317148483</v>
+        <v>0.0008119208529080904</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.331133011548573</v>
+        <v>0.51509871110623</v>
       </c>
       <c r="J20">
-        <v>0.261115619609301</v>
+        <v>0.1216151718309497</v>
       </c>
       <c r="K20">
-        <v>0.5508132602883506</v>
+        <v>1.759115448549863</v>
       </c>
       <c r="L20">
-        <v>0.2377909585496809</v>
+        <v>0.3311771303941384</v>
       </c>
       <c r="M20">
-        <v>0.2040784983992765</v>
+        <v>0.2879940829214718</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.42102787448357</v>
+        <v>2.175347830475545</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7124239220647155</v>
+        <v>1.087335245933161</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1695540152075452</v>
+        <v>0.08446021758767586</v>
       </c>
       <c r="E21">
-        <v>0.1883648790632919</v>
+        <v>0.07038822356158025</v>
       </c>
       <c r="F21">
-        <v>1.758873173863883</v>
+        <v>0.8884368942000833</v>
       </c>
       <c r="G21">
-        <v>0.002485161982256073</v>
+        <v>0.0008072961260622261</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.317288936175185</v>
+        <v>0.4948066298947218</v>
       </c>
       <c r="J21">
-        <v>0.2599814570700065</v>
+        <v>0.1194076883814574</v>
       </c>
       <c r="K21">
-        <v>0.6170708911485576</v>
+        <v>1.975328551977896</v>
       </c>
       <c r="L21">
-        <v>0.2484352158085414</v>
+        <v>0.3718302299816258</v>
       </c>
       <c r="M21">
-        <v>0.2135888411444071</v>
+        <v>0.3233486495621776</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.400586707759089</v>
+        <v>2.227817709885812</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7338482521052754</v>
+        <v>1.165534372873054</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1698910540955154</v>
+        <v>0.08732110141410487</v>
       </c>
       <c r="E22">
-        <v>0.1876865917287485</v>
+        <v>0.06941827298021819</v>
       </c>
       <c r="F22">
-        <v>1.755224270006707</v>
+        <v>0.9055155870045866</v>
       </c>
       <c r="G22">
-        <v>0.002483394749091299</v>
+        <v>0.0008043308687052939</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.308697045310577</v>
+        <v>0.482514455950227</v>
       </c>
       <c r="J22">
-        <v>0.2592742314316521</v>
+        <v>0.1180191875678478</v>
       </c>
       <c r="K22">
-        <v>0.6603029480127418</v>
+        <v>2.117108122533608</v>
       </c>
       <c r="L22">
-        <v>0.2554494188872809</v>
+        <v>0.3986057595791124</v>
       </c>
       <c r="M22">
-        <v>0.2198503259565427</v>
+        <v>0.3466057960687365</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.389077709101656</v>
+        <v>2.266807547196407</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7224005812519749</v>
+        <v>1.12375319198523</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.169707769775691</v>
+        <v>0.08578867601548978</v>
       </c>
       <c r="E23">
-        <v>0.1880456085597806</v>
+        <v>0.06993158111161479</v>
       </c>
       <c r="F23">
-        <v>1.757108298453872</v>
+        <v>0.8962435002408711</v>
       </c>
       <c r="G23">
-        <v>0.002484331495667453</v>
+        <v>0.0008059083864713546</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.313240992933952</v>
+        <v>0.488983850222386</v>
       </c>
       <c r="J23">
-        <v>0.2596485861359863</v>
+        <v>0.1187552708787756</v>
       </c>
       <c r="K23">
-        <v>0.6372359490439123</v>
+        <v>2.041388529656444</v>
       </c>
       <c r="L23">
-        <v>0.251700591624072</v>
+        <v>0.3842948088552731</v>
       </c>
       <c r="M23">
-        <v>0.2165043030722984</v>
+        <v>0.3341781318896153</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.39505102959734</v>
+        <v>2.245550601248397</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6793354010064263</v>
+        <v>0.9664410334052889</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1690885550369927</v>
+        <v>0.0801031276603652</v>
       </c>
       <c r="E24">
-        <v>0.1894712909806291</v>
+        <v>0.07197111170132153</v>
       </c>
       <c r="F24">
-        <v>1.76563874222709</v>
+        <v>0.8644714229044723</v>
       </c>
       <c r="G24">
-        <v>0.002488021482285881</v>
+        <v>0.000811997439888268</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.331366988483506</v>
+        <v>0.5154462201923486</v>
       </c>
       <c r="J24">
-        <v>0.261134732827049</v>
+        <v>0.1216521619449793</v>
       </c>
       <c r="K24">
-        <v>0.549729169573169</v>
+        <v>1.75558822387049</v>
       </c>
       <c r="L24">
-        <v>0.2376179671581156</v>
+        <v>0.3305158435541387</v>
       </c>
       <c r="M24">
-        <v>0.2039238436331487</v>
+        <v>0.28741854382843</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.421393230603087</v>
+        <v>2.174565747746556</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6335248461005847</v>
+        <v>0.798388934218508</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1685823015339167</v>
+        <v>0.07420521180245743</v>
       </c>
       <c r="E25">
-        <v>0.1911507015826102</v>
+        <v>0.07437132878293129</v>
       </c>
       <c r="F25">
-        <v>1.777825730686715</v>
+        <v>0.8367306407131636</v>
       </c>
       <c r="G25">
-        <v>0.002492307514715257</v>
+        <v>0.0008188252023834421</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.352878609103946</v>
+        <v>0.5479221156325167</v>
       </c>
       <c r="J25">
-        <v>0.2628845849647838</v>
+        <v>0.1250073742263282</v>
       </c>
       <c r="K25">
-        <v>0.455058938897082</v>
+        <v>1.448763193334003</v>
       </c>
       <c r="L25">
-        <v>0.2226799420802905</v>
+        <v>0.2732535847827791</v>
       </c>
       <c r="M25">
-        <v>0.1905561274995051</v>
+        <v>0.2375257377421107</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.457759481968651</v>
+        <v>2.116500269629285</v>
       </c>
     </row>
   </sheetData>
